--- a/data/trans_dic/P31_3_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P31_3_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza una actividad física moderada &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que realiza una actividad física moderada &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,17%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>74,45%</t>
+          <t>69,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>79,71%</t>
+          <t>80,51%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>82,94%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>86,57%</t>
+          <t>69,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,41%</t>
+          <t>89,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>88,49%</t>
+          <t>89,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>80,97%</t>
+          <t>85,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>85,95%</t>
+          <t>78,91%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>85,84%</t>
+          <t>80,09%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>85,32%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>83,59%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>74,02%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>65,29; 79,98</t>
+          <t>54,44; 76,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73,63; 84,72</t>
+          <t>73,75; 86,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77,18; 87,69</t>
+          <t>74,08; 87,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>82,83; 89,99</t>
+          <t>60,18; 79,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,32; 93,93</t>
+          <t>84,45; 93,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,43; 91,72</t>
+          <t>84,07; 93,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>76,63; 84,46</t>
+          <t>80,05; 89,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>82,91; 88,75</t>
+          <t>71,77; 84,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>82,25; 88,84</t>
+          <t>72,75; 84,46</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>81,3; 88,82</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>79,34; 87,49</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>68,36; 79,21</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,43%</t>
+          <t>78,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>80,18%</t>
+          <t>80,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>77,05%</t>
+          <t>73,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>89,87%</t>
+          <t>72,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>90,02%</t>
+          <t>89,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>87,31%</t>
+          <t>86,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>86,35%</t>
+          <t>85,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>85,16%</t>
+          <t>86,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>82,2%</t>
+          <t>84,26%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>83,32%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>79,72%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>79,49%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,26; 87,65</t>
+          <t>68,48; 85,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>73,53; 86,07</t>
+          <t>69,72; 87,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,34; 83,11</t>
+          <t>65,37; 82,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,55; 92,84</t>
+          <t>62,09; 80,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>86,07; 93,57</t>
+          <t>83,15; 93,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,66; 91,21</t>
+          <t>79,77; 92,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>82,47; 89,27</t>
+          <t>78,73; 90,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>80,8; 88,66</t>
+          <t>79,26; 91,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>78,19; 86,11</t>
+          <t>79,26; 88,87</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>78,11; 88,13</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>73,72; 84,64</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>73,64; 84,45</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>90,64%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>88,81%</t>
+          <t>88,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>85,58%</t>
+          <t>80,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>76,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>90,64%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>89,9%</t>
+          <t>83,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>80,24%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>89,67%</t>
+          <t>86,39%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>92,56%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>86,4%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>80,47%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,13; 98,52</t>
+          <t>82,31; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,06; 96,94</t>
+          <t>74,18; 97,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,17; 95,1</t>
+          <t>71,69; 97,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72,84; 92,91</t>
+          <t>59,33; 93,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>87,46; 98,72</t>
+          <t>60,24; 88,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,67; 96,0</t>
+          <t>81,66; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>83,22; 95,0</t>
+          <t>66,89; 94,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,4; 96,71</t>
+          <t>64,59; 91,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>83,28; 94,2</t>
+          <t>75,6; 93,7</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>84,04; 97,39</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>76,0; 94,16</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>67,92; 89,95</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>79,96%</t>
+          <t>75,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>81,21%</t>
+          <t>81,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>81,29%</t>
+          <t>79,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>87,8%</t>
+          <t>71,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>88,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>88,25%</t>
+          <t>88,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>84,09%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>86,41%</t>
+          <t>82,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>84,82%</t>
+          <t>82,44%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>85,24%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>82,31%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>76,9%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,66; 83,7</t>
+          <t>67,04; 81,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,34; 84,86</t>
+          <t>75,87; 85,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,0; 84,66</t>
+          <t>73,7; 83,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>85,13; 90,06</t>
+          <t>65,51; 77,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,92; 93,42</t>
+          <t>84,81; 91,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,66; 90,62</t>
+          <t>84,73; 91,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>81,28; 86,2</t>
+          <t>81,17; 88,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>84,0; 88,4</t>
+          <t>77,81; 86,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>82,25; 87,05</t>
+          <t>78,09; 85,64</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>82,07; 88,07</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>78,86; 85,33</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>73,34; 80,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza una actividad física moderada &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,17%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>297083</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>290798</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>310242</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>348216</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>453003</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>359969</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>345312</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>402894</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>750087</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>650767</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>655553</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>751110</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>234117; 331053</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>266386; 313867</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>282098; 334253</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>303409; 400111</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>427741; 473312</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>337580; 377045</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>322940; 362801</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>366416; 431086</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>681338; 791099</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>620150; 677466</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>622187; 686123</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>693657; 803791</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>281170</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>248173</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>238596</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>289537</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>377774</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>278306</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>282613</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>362534</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>658945</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>526479</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>521209</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>652071</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>246113; 306716</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>216091; 271124</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>210876; 264685</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>249124; 322298</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>351434; 396251</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>256803; 296897</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>260746; 299599</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>332164; 382953</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>619820; 695018</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>493569; 556880</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>481972; 553377</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>604090; 692717</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>95670</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>72491</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>76088</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>96324</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>77297</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>74426</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>69185</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>84800</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>172967</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>146917</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>145273</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>181124</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>81534; 99052</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>59046; 77862</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>61362; 83398</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>70836; 112218</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>60947; 89296</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>64613; 79127</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>55218; 77753</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>68259; 96671</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>151367; 187613</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>133394; 154587</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>127790; 158323</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>152866; 202449</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>340.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>593.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>593.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>589.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>527.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>673924</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>611463</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>624925</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>734077</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>908075</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>712701</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>697110</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>850228</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1581999</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1324163</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1322036</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1584306</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>595699; 720879</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>569585; 645598</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>581491; 661583</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>671333; 791217</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>873827; 938200</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>680052; 737709</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>663263; 723070</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>805602; 894163</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1498519; 1643345</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1274919; 1368064</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1266603; 1370616</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1510807; 1659730</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
